--- a/excel DB format/Courses.xlsx
+++ b/excel DB format/Courses.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11380"/>
+    <workbookView windowWidth="28800" windowHeight="11980"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="296">
   <si>
     <t>code</t>
   </si>
@@ -267,6 +267,63 @@
     <t>ANA 212</t>
   </si>
   <si>
+    <t>Thorax, Abdominal, pelvis and perineum</t>
+  </si>
+  <si>
+    <t>PHS 212</t>
+  </si>
+  <si>
+    <t>Gastro Intestinal Track Physiology</t>
+  </si>
+  <si>
+    <t>PHS 214</t>
+  </si>
+  <si>
+    <t>Nutrition and Metabolism</t>
+  </si>
+  <si>
+    <t>MUI-STA212</t>
+  </si>
+  <si>
+    <t>Biostatistics</t>
+  </si>
+  <si>
+    <t>NSC 212</t>
+  </si>
+  <si>
+    <t>Foundations of Professional Practice II</t>
+  </si>
+  <si>
+    <t>GST 214</t>
+  </si>
+  <si>
+    <t>Peace and Conflict Resolution</t>
+  </si>
+  <si>
+    <t>ENT 212</t>
+  </si>
+  <si>
+    <t>Entrepreneurship and Innovation II</t>
+  </si>
+  <si>
+    <t>MCB 212</t>
+  </si>
+  <si>
+    <t>Introduction to General Microbiology II</t>
+  </si>
+  <si>
+    <t>NSC 214</t>
+  </si>
+  <si>
+    <t>Clinical Nursing Practicum I</t>
+  </si>
+  <si>
+    <t>BCH 212</t>
+  </si>
+  <si>
+    <t>Clinical Biochemistry II</t>
+  </si>
+  <si>
     <t>Anatomy of Upper and Lower Limb II</t>
   </si>
   <si>
@@ -274,66 +331,6 @@
   </si>
   <si>
     <t>General and Systemic Embryology II</t>
-  </si>
-  <si>
-    <t>PHS 212</t>
-  </si>
-  <si>
-    <t>Gastro Intestinal Track Physiology</t>
-  </si>
-  <si>
-    <t>PHS 214</t>
-  </si>
-  <si>
-    <t>Nutrition and Metabolism</t>
-  </si>
-  <si>
-    <t>MUI-STA212</t>
-  </si>
-  <si>
-    <t>Biostatistics</t>
-  </si>
-  <si>
-    <t>NSC 212</t>
-  </si>
-  <si>
-    <t>Foundations of Professional Practice II</t>
-  </si>
-  <si>
-    <t>NSC 214</t>
-  </si>
-  <si>
-    <t>Developmental Psychology II</t>
-  </si>
-  <si>
-    <t>GST 214</t>
-  </si>
-  <si>
-    <t>Peace and Conflict Resolution</t>
-  </si>
-  <si>
-    <t>ENT 212</t>
-  </si>
-  <si>
-    <t>Entrepreneurship and Innovation II</t>
-  </si>
-  <si>
-    <t>MCB 212</t>
-  </si>
-  <si>
-    <t>Introduction to General Microbiology II</t>
-  </si>
-  <si>
-    <t>NSC216</t>
-  </si>
-  <si>
-    <t>Clinical Nursing Practicum I</t>
-  </si>
-  <si>
-    <t>BCH 212</t>
-  </si>
-  <si>
-    <t>Clinical Biochemistry II</t>
   </si>
   <si>
     <t>Introductory to Physiology and Blood II</t>
@@ -4591,10 +4588,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F274"/>
+  <dimension ref="A1:F272"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="B100" sqref="B100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="5"/>
@@ -6636,7 +6635,7 @@
         <v>73</v>
       </c>
       <c r="C102" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>8</v>
@@ -6670,19 +6669,19 @@
     </row>
     <row r="104" ht="18" spans="1:6">
       <c r="A104" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B104" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B104" s="5" t="s">
-        <v>77</v>
-      </c>
       <c r="C104" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E104" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F104" s="1">
         <v>200</v>
@@ -6690,11 +6689,11 @@
     </row>
     <row r="105" ht="18" spans="1:6">
       <c r="A105" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B105" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B105" s="5" t="s">
-        <v>79</v>
-      </c>
       <c r="C105" s="6">
         <v>2</v>
       </c>
@@ -6702,7 +6701,7 @@
         <v>8</v>
       </c>
       <c r="E105" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F105" s="1">
         <v>200</v>
@@ -6710,10 +6709,10 @@
     </row>
     <row r="106" ht="18" spans="1:6">
       <c r="A106" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="C106" s="6">
         <v>2</v>
@@ -6730,10 +6729,10 @@
     </row>
     <row r="107" ht="18" spans="1:6">
       <c r="A107" s="5" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="C107" s="6">
         <v>2</v>
@@ -6750,10 +6749,10 @@
     </row>
     <row r="108" ht="18" spans="1:6">
       <c r="A108" s="5" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C108" s="6">
         <v>2</v>
@@ -6770,10 +6769,10 @@
     </row>
     <row r="109" ht="18" spans="1:6">
       <c r="A109" s="5" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C109" s="6">
         <v>2</v>
@@ -6790,10 +6789,10 @@
     </row>
     <row r="110" ht="18" spans="1:6">
       <c r="A110" s="5" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C110" s="6">
         <v>2</v>
@@ -6810,10 +6809,10 @@
     </row>
     <row r="111" ht="18" spans="1:6">
       <c r="A111" s="5" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="C111" s="6">
         <v>2</v>
@@ -6830,10 +6829,10 @@
     </row>
     <row r="112" ht="18" spans="1:6">
       <c r="A112" s="5" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="C112" s="6">
         <v>2</v>
@@ -6850,10 +6849,10 @@
     </row>
     <row r="113" ht="18" spans="1:6">
       <c r="A113" s="5" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="C113" s="6">
         <v>2</v>
@@ -6870,19 +6869,19 @@
     </row>
     <row r="114" ht="18" spans="1:6">
       <c r="A114" s="5" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="C114" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E114" s="1">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F114" s="1">
         <v>200</v>
@@ -6890,10 +6889,10 @@
     </row>
     <row r="115" ht="18" spans="1:6">
       <c r="A115" s="5" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="C115" s="6">
         <v>2</v>
@@ -6902,7 +6901,7 @@
         <v>8</v>
       </c>
       <c r="E115" s="1">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F115" s="1">
         <v>200</v>
@@ -6910,13 +6909,13 @@
     </row>
     <row r="116" ht="18" spans="1:6">
       <c r="A116" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C116" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>8</v>
@@ -6930,10 +6929,10 @@
     </row>
     <row r="117" ht="18" spans="1:6">
       <c r="A117" s="5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C117" s="6">
         <v>2</v>
@@ -6950,10 +6949,10 @@
     </row>
     <row r="118" ht="18" spans="1:6">
       <c r="A118" s="5" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C118" s="6">
         <v>2</v>
@@ -6970,10 +6969,10 @@
     </row>
     <row r="119" ht="18" spans="1:6">
       <c r="A119" s="5" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C119" s="6">
         <v>2</v>
@@ -6990,13 +6989,13 @@
     </row>
     <row r="120" ht="18" spans="1:6">
       <c r="A120" s="5" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C120" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>8</v>
@@ -7010,13 +7009,13 @@
     </row>
     <row r="121" ht="18" spans="1:6">
       <c r="A121" s="5" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C121" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>8</v>
@@ -7030,13 +7029,13 @@
     </row>
     <row r="122" ht="18" spans="1:6">
       <c r="A122" s="5" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="C122" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>8</v>
@@ -7050,13 +7049,13 @@
     </row>
     <row r="123" ht="18" spans="1:6">
       <c r="A123" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C123" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>8</v>
@@ -7070,10 +7069,10 @@
     </row>
     <row r="124" ht="18" spans="1:6">
       <c r="A124" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C124" s="6">
         <v>2</v>
@@ -7090,10 +7089,10 @@
     </row>
     <row r="125" ht="18" spans="1:6">
       <c r="A125" s="5" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="C125" s="6">
         <v>3</v>
@@ -7102,7 +7101,7 @@
         <v>8</v>
       </c>
       <c r="E125" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F125" s="1">
         <v>200</v>
@@ -7110,10 +7109,10 @@
     </row>
     <row r="126" ht="18" spans="1:6">
       <c r="A126" s="5" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C126" s="6">
         <v>2</v>
@@ -7122,7 +7121,7 @@
         <v>8</v>
       </c>
       <c r="E126" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F126" s="1">
         <v>200</v>
@@ -7130,13 +7129,13 @@
     </row>
     <row r="127" ht="18" spans="1:6">
       <c r="A127" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C127" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>8</v>
@@ -7150,10 +7149,10 @@
     </row>
     <row r="128" ht="18" spans="1:6">
       <c r="A128" s="5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C128" s="6">
         <v>2</v>
@@ -7170,10 +7169,10 @@
     </row>
     <row r="129" ht="18" spans="1:6">
       <c r="A129" s="5" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C129" s="6">
         <v>2</v>
@@ -7190,10 +7189,10 @@
     </row>
     <row r="130" ht="18" spans="1:6">
       <c r="A130" s="5" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C130" s="6">
         <v>2</v>
@@ -7210,13 +7209,13 @@
     </row>
     <row r="131" ht="18" spans="1:6">
       <c r="A131" s="5" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C131" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>8</v>
@@ -7230,13 +7229,13 @@
     </row>
     <row r="132" ht="18" spans="1:6">
       <c r="A132" s="5" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C132" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>8</v>
@@ -7250,13 +7249,13 @@
     </row>
     <row r="133" ht="18" spans="1:6">
       <c r="A133" s="5" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="C133" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>8</v>
@@ -7270,13 +7269,13 @@
     </row>
     <row r="134" ht="18" spans="1:6">
       <c r="A134" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C134" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>8</v>
@@ -7290,10 +7289,10 @@
     </row>
     <row r="135" ht="18" spans="1:6">
       <c r="A135" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C135" s="6">
         <v>2</v>
@@ -7310,10 +7309,10 @@
     </row>
     <row r="136" ht="18" spans="1:6">
       <c r="A136" s="5" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="C136" s="6">
         <v>3</v>
@@ -7322,7 +7321,7 @@
         <v>8</v>
       </c>
       <c r="E136" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F136" s="1">
         <v>200</v>
@@ -7330,10 +7329,10 @@
     </row>
     <row r="137" ht="18" spans="1:6">
       <c r="A137" s="5" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C137" s="6">
         <v>2</v>
@@ -7342,7 +7341,7 @@
         <v>8</v>
       </c>
       <c r="E137" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F137" s="1">
         <v>200</v>
@@ -7350,13 +7349,13 @@
     </row>
     <row r="138" ht="18" spans="1:6">
       <c r="A138" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C138" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>8</v>
@@ -7370,10 +7369,10 @@
     </row>
     <row r="139" ht="18" spans="1:6">
       <c r="A139" s="5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C139" s="6">
         <v>2</v>
@@ -7390,10 +7389,10 @@
     </row>
     <row r="140" ht="18" spans="1:6">
       <c r="A140" s="5" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C140" s="6">
         <v>2</v>
@@ -7410,10 +7409,10 @@
     </row>
     <row r="141" ht="18" spans="1:6">
       <c r="A141" s="5" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C141" s="6">
         <v>2</v>
@@ -7430,13 +7429,13 @@
     </row>
     <row r="142" ht="18" spans="1:6">
       <c r="A142" s="5" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C142" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>8</v>
@@ -7450,13 +7449,13 @@
     </row>
     <row r="143" ht="18" spans="1:6">
       <c r="A143" s="5" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C143" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>8</v>
@@ -7470,13 +7469,13 @@
     </row>
     <row r="144" ht="18" spans="1:6">
       <c r="A144" s="5" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="C144" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>8</v>
@@ -7490,13 +7489,13 @@
     </row>
     <row r="145" ht="18" spans="1:6">
       <c r="A145" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C145" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>8</v>
@@ -7510,10 +7509,10 @@
     </row>
     <row r="146" ht="18" spans="1:6">
       <c r="A146" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C146" s="6">
         <v>2</v>
@@ -7530,10 +7529,10 @@
     </row>
     <row r="147" ht="18" spans="1:6">
       <c r="A147" s="5" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="C147" s="6">
         <v>3</v>
@@ -7542,7 +7541,7 @@
         <v>8</v>
       </c>
       <c r="E147" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F147" s="1">
         <v>200</v>
@@ -7550,10 +7549,10 @@
     </row>
     <row r="148" ht="18" spans="1:6">
       <c r="A148" s="5" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C148" s="6">
         <v>2</v>
@@ -7562,7 +7561,7 @@
         <v>8</v>
       </c>
       <c r="E148" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F148" s="1">
         <v>200</v>
@@ -7570,13 +7569,13 @@
     </row>
     <row r="149" ht="18" spans="1:6">
       <c r="A149" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C149" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>8</v>
@@ -7590,10 +7589,10 @@
     </row>
     <row r="150" ht="18" spans="1:6">
       <c r="A150" s="5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C150" s="6">
         <v>2</v>
@@ -7610,10 +7609,10 @@
     </row>
     <row r="151" ht="18" spans="1:6">
       <c r="A151" s="5" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C151" s="6">
         <v>2</v>
@@ -7630,10 +7629,10 @@
     </row>
     <row r="152" ht="18" spans="1:6">
       <c r="A152" s="5" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C152" s="6">
         <v>2</v>
@@ -7650,13 +7649,13 @@
     </row>
     <row r="153" ht="18" spans="1:6">
       <c r="A153" s="5" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C153" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>8</v>
@@ -7670,13 +7669,13 @@
     </row>
     <row r="154" ht="18" spans="1:6">
       <c r="A154" s="5" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C154" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D154" s="1" t="s">
         <v>8</v>
@@ -7690,13 +7689,13 @@
     </row>
     <row r="155" ht="18" spans="1:6">
       <c r="A155" s="5" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="C155" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D155" s="1" t="s">
         <v>8</v>
@@ -7710,13 +7709,13 @@
     </row>
     <row r="156" ht="18" spans="1:6">
       <c r="A156" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C156" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D156" s="1" t="s">
         <v>8</v>
@@ -7730,10 +7729,10 @@
     </row>
     <row r="157" ht="18" spans="1:6">
       <c r="A157" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C157" s="6">
         <v>2</v>
@@ -7749,40 +7748,40 @@
       </c>
     </row>
     <row r="158" ht="18" spans="1:6">
-      <c r="A158" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B158" s="5" t="s">
+      <c r="A158" s="8" t="s">
         <v>105</v>
       </c>
+      <c r="B158" s="8" t="s">
+        <v>106</v>
+      </c>
       <c r="C158" s="6">
+        <v>2</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E158" s="1">
+        <v>16</v>
+      </c>
+      <c r="F158" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="159" ht="18" spans="1:6">
+      <c r="A159" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B159" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C159" s="6">
         <v>3</v>
       </c>
-      <c r="D158" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E158" s="1">
-        <v>4</v>
-      </c>
-      <c r="F158" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="159" ht="18" spans="1:6">
-      <c r="A159" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B159" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C159" s="6">
-        <v>2</v>
-      </c>
       <c r="D159" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E159" s="1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F159" s="1">
         <v>200</v>
@@ -7790,10 +7789,10 @@
     </row>
     <row r="160" ht="18" spans="1:6">
       <c r="A160" s="8" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C160" s="6">
         <v>2</v>
@@ -7810,10 +7809,10 @@
     </row>
     <row r="161" ht="18" spans="1:6">
       <c r="A161" s="8" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C161" s="6">
         <v>3</v>
@@ -7830,13 +7829,13 @@
     </row>
     <row r="162" ht="18" spans="1:6">
       <c r="A162" s="8" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C162" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D162" s="1" t="s">
         <v>8</v>
@@ -7850,10 +7849,10 @@
     </row>
     <row r="163" ht="18" spans="1:6">
       <c r="A163" s="8" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C163" s="6">
         <v>3</v>
@@ -7870,13 +7869,13 @@
     </row>
     <row r="164" ht="18" spans="1:6">
       <c r="A164" s="8" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="B164" s="8" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="C164" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D164" s="1" t="s">
         <v>8</v>
@@ -7890,13 +7889,13 @@
     </row>
     <row r="165" ht="18" spans="1:6">
       <c r="A165" s="8" t="s">
-        <v>116</v>
+        <v>66</v>
       </c>
       <c r="B165" s="8" t="s">
-        <v>117</v>
+        <v>67</v>
       </c>
       <c r="C165" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D165" s="1" t="s">
         <v>8</v>
@@ -7910,10 +7909,10 @@
     </row>
     <row r="166" ht="18" spans="1:6">
       <c r="A166" s="8" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="B166" s="8" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="C166" s="6">
         <v>2</v>
@@ -7930,13 +7929,13 @@
     </row>
     <row r="167" ht="18" spans="1:6">
       <c r="A167" s="8" t="s">
-        <v>70</v>
+        <v>117</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>71</v>
+        <v>118</v>
       </c>
       <c r="C167" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D167" s="1" t="s">
         <v>8</v>
@@ -7950,13 +7949,13 @@
     </row>
     <row r="168" ht="18" spans="1:6">
       <c r="A168" s="8" t="s">
-        <v>72</v>
+        <v>119</v>
       </c>
       <c r="B168" s="8" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="C168" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D168" s="1" t="s">
         <v>8</v>
@@ -7965,18 +7964,18 @@
         <v>16</v>
       </c>
       <c r="F168" s="1">
-        <v>200</v>
+        <v>300</v>
       </c>
     </row>
     <row r="169" ht="18" spans="1:6">
       <c r="A169" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="B169" s="8" t="s">
-        <v>119</v>
+        <v>121</v>
+      </c>
+      <c r="B169" s="9" t="s">
+        <v>122</v>
       </c>
       <c r="C169" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D169" s="1" t="s">
         <v>8</v>
@@ -7985,18 +7984,18 @@
         <v>16</v>
       </c>
       <c r="F169" s="1">
-        <v>200</v>
+        <v>300</v>
       </c>
     </row>
     <row r="170" ht="18" spans="1:6">
       <c r="A170" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="B170" s="8" t="s">
-        <v>121</v>
+        <v>123</v>
+      </c>
+      <c r="B170" s="9" t="s">
+        <v>124</v>
       </c>
       <c r="C170" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D170" s="1" t="s">
         <v>8</v>
@@ -8010,13 +8009,13 @@
     </row>
     <row r="171" ht="18" spans="1:6">
       <c r="A171" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="B171" s="9" t="s">
-        <v>123</v>
+        <v>125</v>
+      </c>
+      <c r="B171" s="8" t="s">
+        <v>126</v>
       </c>
       <c r="C171" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D171" s="1" t="s">
         <v>8</v>
@@ -8030,10 +8029,10 @@
     </row>
     <row r="172" ht="18" spans="1:6">
       <c r="A172" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="B172" s="9" t="s">
-        <v>125</v>
+        <v>127</v>
+      </c>
+      <c r="B172" s="8" t="s">
+        <v>128</v>
       </c>
       <c r="C172" s="6">
         <v>2</v>
@@ -8050,10 +8049,10 @@
     </row>
     <row r="173" ht="18" spans="1:6">
       <c r="A173" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="B173" s="8" t="s">
-        <v>127</v>
+        <v>129</v>
+      </c>
+      <c r="B173" s="10" t="s">
+        <v>130</v>
       </c>
       <c r="C173" s="6">
         <v>3</v>
@@ -8070,10 +8069,10 @@
     </row>
     <row r="174" ht="18" spans="1:6">
       <c r="A174" s="8" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B174" s="8" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C174" s="6">
         <v>2</v>
@@ -8090,13 +8089,13 @@
     </row>
     <row r="175" ht="18" spans="1:6">
       <c r="A175" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="B175" s="10" t="s">
-        <v>131</v>
+        <v>133</v>
+      </c>
+      <c r="B175" s="8" t="s">
+        <v>134</v>
       </c>
       <c r="C175" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D175" s="1" t="s">
         <v>8</v>
@@ -8110,10 +8109,10 @@
     </row>
     <row r="176" ht="18" spans="1:6">
       <c r="A176" s="8" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B176" s="8" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C176" s="6">
         <v>2</v>
@@ -8130,50 +8129,50 @@
     </row>
     <row r="177" ht="18" spans="1:6">
       <c r="A177" s="8" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B177" s="8" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C177" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D177" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E177" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F177" s="1">
-        <v>300</v>
+        <v>200</v>
       </c>
     </row>
     <row r="178" ht="18" spans="1:6">
       <c r="A178" s="8" t="s">
-        <v>136</v>
+        <v>89</v>
       </c>
       <c r="B178" s="8" t="s">
-        <v>137</v>
+        <v>90</v>
       </c>
       <c r="C178" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D178" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E178" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F178" s="1">
-        <v>300</v>
+        <v>200</v>
       </c>
     </row>
     <row r="179" ht="18" spans="1:6">
       <c r="A179" s="8" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B179" s="8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C179" s="6">
         <v>3</v>
@@ -8190,10 +8189,10 @@
     </row>
     <row r="180" ht="18" spans="1:6">
       <c r="A180" s="8" t="s">
-        <v>90</v>
+        <v>141</v>
       </c>
       <c r="B180" s="8" t="s">
-        <v>91</v>
+        <v>142</v>
       </c>
       <c r="C180" s="6">
         <v>3</v>
@@ -8210,10 +8209,10 @@
     </row>
     <row r="181" ht="18" spans="1:6">
       <c r="A181" s="8" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B181" s="8" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C181" s="6">
         <v>3</v>
@@ -8230,13 +8229,13 @@
     </row>
     <row r="182" ht="18" spans="1:6">
       <c r="A182" s="8" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B182" s="8" t="s">
-        <v>143</v>
+        <v>67</v>
       </c>
       <c r="C182" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D182" s="1" t="s">
         <v>8</v>
@@ -8250,13 +8249,13 @@
     </row>
     <row r="183" ht="18" spans="1:6">
       <c r="A183" s="8" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B183" s="8" t="s">
-        <v>145</v>
+        <v>69</v>
       </c>
       <c r="C183" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D183" s="1" t="s">
         <v>8</v>
@@ -8270,10 +8269,10 @@
     </row>
     <row r="184" ht="18" spans="1:6">
       <c r="A184" s="8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B184" s="8" t="s">
-        <v>71</v>
+        <v>148</v>
       </c>
       <c r="C184" s="6">
         <v>2</v>
@@ -8290,13 +8289,13 @@
     </row>
     <row r="185" ht="18" spans="1:6">
       <c r="A185" s="8" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B185" s="8" t="s">
-        <v>73</v>
+        <v>150</v>
       </c>
       <c r="C185" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D185" s="1" t="s">
         <v>8</v>
@@ -8310,10 +8309,10 @@
     </row>
     <row r="186" ht="18" spans="1:6">
       <c r="A186" s="8" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B186" s="8" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C186" s="6">
         <v>2</v>
@@ -8325,15 +8324,15 @@
         <v>15</v>
       </c>
       <c r="F186" s="1">
-        <v>200</v>
+        <v>400</v>
       </c>
     </row>
     <row r="187" ht="18" spans="1:6">
       <c r="A187" s="8" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B187" s="8" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C187" s="6">
         <v>3</v>
@@ -8345,18 +8344,18 @@
         <v>15</v>
       </c>
       <c r="F187" s="1">
-        <v>200</v>
+        <v>400</v>
       </c>
     </row>
     <row r="188" ht="18" spans="1:6">
       <c r="A188" s="8" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B188" s="8" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C188" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D188" s="1" t="s">
         <v>8</v>
@@ -8370,13 +8369,13 @@
     </row>
     <row r="189" ht="18" spans="1:6">
       <c r="A189" s="8" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B189" s="8" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C189" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D189" s="1" t="s">
         <v>8</v>
@@ -8390,13 +8389,13 @@
     </row>
     <row r="190" ht="18" spans="1:6">
       <c r="A190" s="8" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B190" s="8" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C190" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D190" s="1" t="s">
         <v>8</v>
@@ -8410,10 +8409,10 @@
     </row>
     <row r="191" ht="18" spans="1:6">
       <c r="A191" s="8" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B191" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C191" s="6">
         <v>2</v>
@@ -8430,13 +8429,13 @@
     </row>
     <row r="192" ht="18" spans="1:6">
       <c r="A192" s="8" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B192" s="8" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C192" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D192" s="1" t="s">
         <v>8</v>
@@ -8450,10 +8449,10 @@
     </row>
     <row r="193" ht="18" spans="1:6">
       <c r="A193" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="B193" s="8" t="s">
-        <v>163</v>
+        <v>165</v>
+      </c>
+      <c r="B193" s="10" t="s">
+        <v>166</v>
       </c>
       <c r="C193" s="6">
         <v>2</v>
@@ -8469,51 +8468,51 @@
       </c>
     </row>
     <row r="194" ht="18" spans="1:6">
-      <c r="A194" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="B194" s="8" t="s">
-        <v>165</v>
+      <c r="A194" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B194" s="5" t="s">
+        <v>67</v>
       </c>
       <c r="C194" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D194" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E194" s="1">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F194" s="1">
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="195" ht="18" spans="1:6">
-      <c r="A195" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B195" s="10" t="s">
+      <c r="A195" s="5" t="s">
         <v>167</v>
       </c>
+      <c r="B195" s="5" t="s">
+        <v>168</v>
+      </c>
       <c r="C195" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D195" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E195" s="1">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F195" s="1">
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="196" ht="18" spans="1:6">
       <c r="A196" s="5" t="s">
-        <v>146</v>
+        <v>169</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>71</v>
+        <v>170</v>
       </c>
       <c r="C196" s="6">
         <v>2</v>
@@ -8530,10 +8529,10 @@
     </row>
     <row r="197" ht="18" spans="1:6">
       <c r="A197" s="5" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C197" s="6">
         <v>3</v>
@@ -8550,10 +8549,10 @@
     </row>
     <row r="198" ht="18" spans="1:6">
       <c r="A198" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C198" s="6">
         <v>2</v>
@@ -8570,13 +8569,13 @@
     </row>
     <row r="199" ht="18" spans="1:6">
       <c r="A199" s="5" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C199" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D199" s="1" t="s">
         <v>8</v>
@@ -8590,10 +8589,10 @@
     </row>
     <row r="200" ht="18" spans="1:6">
       <c r="A200" s="5" t="s">
-        <v>174</v>
+        <v>62</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C200" s="6">
         <v>2</v>
@@ -8610,13 +8609,13 @@
     </row>
     <row r="201" ht="18" spans="1:6">
       <c r="A201" s="5" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C201" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D201" s="1" t="s">
         <v>8</v>
@@ -8630,10 +8629,10 @@
     </row>
     <row r="202" ht="18" spans="1:6">
       <c r="A202" s="5" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>178</v>
+        <v>69</v>
       </c>
       <c r="C202" s="6">
         <v>2</v>
@@ -8650,19 +8649,19 @@
     </row>
     <row r="203" ht="18" spans="1:6">
       <c r="A203" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C203" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D203" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E203" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F203" s="1">
         <v>200</v>
@@ -8670,10 +8669,10 @@
     </row>
     <row r="204" ht="18" spans="1:6">
       <c r="A204" s="5" t="s">
-        <v>72</v>
+        <v>181</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>73</v>
+        <v>182</v>
       </c>
       <c r="C204" s="6">
         <v>2</v>
@@ -8682,7 +8681,7 @@
         <v>8</v>
       </c>
       <c r="E204" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F204" s="1">
         <v>200</v>
@@ -8690,13 +8689,13 @@
     </row>
     <row r="205" ht="18" spans="1:6">
       <c r="A205" s="5" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="C205" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D205" s="1" t="s">
         <v>8</v>
@@ -8710,13 +8709,13 @@
     </row>
     <row r="206" ht="18" spans="1:6">
       <c r="A206" s="5" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C206" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D206" s="1" t="s">
         <v>8</v>
@@ -8730,13 +8729,13 @@
     </row>
     <row r="207" ht="18" spans="1:6">
       <c r="A207" s="5" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C207" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D207" s="1" t="s">
         <v>8</v>
@@ -8750,13 +8749,13 @@
     </row>
     <row r="208" ht="18" spans="1:6">
       <c r="A208" s="5" t="s">
-        <v>186</v>
+        <v>145</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>187</v>
+        <v>67</v>
       </c>
       <c r="C208" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D208" s="1" t="s">
         <v>8</v>
@@ -8770,10 +8769,10 @@
     </row>
     <row r="209" ht="18" spans="1:6">
       <c r="A209" s="5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C209" s="6">
         <v>2</v>
@@ -8790,10 +8789,10 @@
     </row>
     <row r="210" ht="18" spans="1:6">
       <c r="A210" s="5" t="s">
-        <v>146</v>
+        <v>191</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>71</v>
+        <v>192</v>
       </c>
       <c r="C210" s="6">
         <v>2</v>
@@ -8810,10 +8809,10 @@
     </row>
     <row r="211" ht="18" spans="1:6">
       <c r="A211" s="5" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C211" s="6">
         <v>2</v>
@@ -8830,10 +8829,10 @@
     </row>
     <row r="212" ht="18" spans="1:6">
       <c r="A212" s="5" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C212" s="6">
         <v>2</v>
@@ -8845,15 +8844,15 @@
         <v>7</v>
       </c>
       <c r="F212" s="1">
-        <v>200</v>
+        <v>300</v>
       </c>
     </row>
     <row r="213" ht="18" spans="1:6">
       <c r="A213" s="5" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C213" s="6">
         <v>2</v>
@@ -8865,18 +8864,18 @@
         <v>7</v>
       </c>
       <c r="F213" s="1">
-        <v>200</v>
+        <v>300</v>
       </c>
     </row>
     <row r="214" ht="18" spans="1:6">
       <c r="A214" s="5" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C214" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D214" s="1" t="s">
         <v>8</v>
@@ -8890,13 +8889,13 @@
     </row>
     <row r="215" ht="18" spans="1:6">
       <c r="A215" s="5" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C215" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D215" s="1" t="s">
         <v>8</v>
@@ -8910,10 +8909,10 @@
     </row>
     <row r="216" ht="18" spans="1:6">
       <c r="A216" s="5" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C216" s="6">
         <v>3</v>
@@ -8930,10 +8929,10 @@
     </row>
     <row r="217" ht="18" spans="1:6">
       <c r="A217" s="5" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C217" s="6">
         <v>3</v>
@@ -8950,10 +8949,10 @@
     </row>
     <row r="218" ht="18" spans="1:6">
       <c r="A218" s="5" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C218" s="6">
         <v>3</v>
@@ -8969,14 +8968,14 @@
       </c>
     </row>
     <row r="219" ht="18" spans="1:6">
-      <c r="A219" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="B219" s="5" t="s">
-        <v>207</v>
+      <c r="A219" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B219" s="8" t="s">
+        <v>136</v>
       </c>
       <c r="C219" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D219" s="1" t="s">
         <v>8</v>
@@ -8990,31 +8989,31 @@
     </row>
     <row r="220" ht="18" spans="1:6">
       <c r="A220" s="5" t="s">
-        <v>208</v>
+        <v>145</v>
       </c>
       <c r="B220" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C220" s="6">
+        <v>2</v>
+      </c>
+      <c r="D220" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E220" s="1">
+        <v>8</v>
+      </c>
+      <c r="F220" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="221" ht="18" spans="1:6">
+      <c r="A221" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B221" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="C220" s="6">
-        <v>3</v>
-      </c>
-      <c r="D220" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E220" s="1">
-        <v>7</v>
-      </c>
-      <c r="F220" s="1">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="221" ht="18" spans="1:6">
-      <c r="A221" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="B221" s="8" t="s">
-        <v>137</v>
-      </c>
       <c r="C221" s="6">
         <v>2</v>
       </c>
@@ -9022,18 +9021,18 @@
         <v>8</v>
       </c>
       <c r="E221" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F221" s="1">
-        <v>300</v>
+        <v>200</v>
       </c>
     </row>
     <row r="222" ht="18" spans="1:6">
       <c r="A222" s="5" t="s">
-        <v>146</v>
+        <v>210</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>71</v>
+        <v>211</v>
       </c>
       <c r="C222" s="6">
         <v>2</v>
@@ -9050,10 +9049,10 @@
     </row>
     <row r="223" ht="18" spans="1:6">
       <c r="A223" s="5" t="s">
-        <v>147</v>
+        <v>212</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C223" s="6">
         <v>2</v>
@@ -9070,10 +9069,10 @@
     </row>
     <row r="224" ht="18" spans="1:6">
       <c r="A224" s="5" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C224" s="6">
         <v>2</v>
@@ -9090,10 +9089,10 @@
     </row>
     <row r="225" ht="18" spans="1:6">
       <c r="A225" s="5" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C225" s="6">
         <v>2</v>
@@ -9110,10 +9109,10 @@
     </row>
     <row r="226" ht="18" spans="1:6">
       <c r="A226" s="5" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C226" s="6">
         <v>2</v>
@@ -9130,10 +9129,10 @@
     </row>
     <row r="227" ht="18" spans="1:6">
       <c r="A227" s="5" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C227" s="6">
         <v>2</v>
@@ -9150,10 +9149,10 @@
     </row>
     <row r="228" ht="18" spans="1:6">
       <c r="A228" s="5" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C228" s="6">
         <v>2</v>
@@ -9170,10 +9169,10 @@
     </row>
     <row r="229" ht="18" spans="1:6">
       <c r="A229" s="5" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C229" s="6">
         <v>2</v>
@@ -9182,7 +9181,7 @@
         <v>8</v>
       </c>
       <c r="E229" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F229" s="1">
         <v>200</v>
@@ -9190,10 +9189,10 @@
     </row>
     <row r="230" ht="18" spans="1:6">
       <c r="A230" s="5" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C230" s="6">
         <v>2</v>
@@ -9202,7 +9201,7 @@
         <v>8</v>
       </c>
       <c r="E230" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F230" s="1">
         <v>200</v>
@@ -9210,10 +9209,10 @@
     </row>
     <row r="231" ht="18" spans="1:6">
       <c r="A231" s="5" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C231" s="6">
         <v>2</v>
@@ -9230,10 +9229,10 @@
     </row>
     <row r="232" ht="18" spans="1:6">
       <c r="A232" s="5" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B232" s="5" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C232" s="6">
         <v>2</v>
@@ -9250,10 +9249,10 @@
     </row>
     <row r="233" ht="18" spans="1:6">
       <c r="A233" s="5" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C233" s="6">
         <v>2</v>
@@ -9270,10 +9269,10 @@
     </row>
     <row r="234" ht="18" spans="1:6">
       <c r="A234" s="5" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C234" s="6">
         <v>2</v>
@@ -9290,10 +9289,10 @@
     </row>
     <row r="235" ht="18" spans="1:6">
       <c r="A235" s="5" t="s">
-        <v>233</v>
+        <v>62</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>234</v>
+        <v>177</v>
       </c>
       <c r="C235" s="6">
         <v>2</v>
@@ -9310,10 +9309,10 @@
     </row>
     <row r="236" ht="18" spans="1:6">
       <c r="A236" s="5" t="s">
-        <v>235</v>
+        <v>145</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>236</v>
+        <v>67</v>
       </c>
       <c r="C236" s="6">
         <v>2</v>
@@ -9330,10 +9329,10 @@
     </row>
     <row r="237" ht="18" spans="1:6">
       <c r="A237" s="5" t="s">
-        <v>64</v>
+        <v>146</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>178</v>
+        <v>69</v>
       </c>
       <c r="C237" s="6">
         <v>2</v>
@@ -9350,30 +9349,30 @@
     </row>
     <row r="238" ht="18" spans="1:6">
       <c r="A238" s="5" t="s">
-        <v>146</v>
+        <v>236</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>71</v>
+        <v>237</v>
       </c>
       <c r="C238" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D238" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E238" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F238" s="1">
-        <v>200</v>
+        <v>300</v>
       </c>
     </row>
     <row r="239" ht="18" spans="1:6">
       <c r="A239" s="5" t="s">
-        <v>147</v>
+        <v>238</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>73</v>
+        <v>239</v>
       </c>
       <c r="C239" s="6">
         <v>2</v>
@@ -9382,21 +9381,21 @@
         <v>8</v>
       </c>
       <c r="E239" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F239" s="1">
-        <v>200</v>
+        <v>300</v>
       </c>
     </row>
     <row r="240" ht="18" spans="1:6">
       <c r="A240" s="5" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C240" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D240" s="1" t="s">
         <v>8</v>
@@ -9410,10 +9409,10 @@
     </row>
     <row r="241" ht="18" spans="1:6">
       <c r="A241" s="5" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C241" s="6">
         <v>2</v>
@@ -9430,13 +9429,13 @@
     </row>
     <row r="242" ht="18" spans="1:6">
       <c r="A242" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="B242" s="5" t="s">
-        <v>242</v>
+        <v>244</v>
+      </c>
+      <c r="B242" s="7" t="s">
+        <v>245</v>
       </c>
       <c r="C242" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D242" s="1" t="s">
         <v>8</v>
@@ -9450,10 +9449,10 @@
     </row>
     <row r="243" ht="18" spans="1:6">
       <c r="A243" s="5" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C243" s="6">
         <v>2</v>
@@ -9470,13 +9469,13 @@
     </row>
     <row r="244" ht="18" spans="1:6">
       <c r="A244" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="B244" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
+      </c>
+      <c r="B244" s="5" t="s">
+        <v>249</v>
       </c>
       <c r="C244" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D244" s="1" t="s">
         <v>8</v>
@@ -9490,10 +9489,10 @@
     </row>
     <row r="245" ht="18" spans="1:6">
       <c r="A245" s="5" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B245" s="5" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C245" s="6">
         <v>2</v>
@@ -9510,13 +9509,13 @@
     </row>
     <row r="246" ht="18" spans="1:6">
       <c r="A246" s="5" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B246" s="5" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C246" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D246" s="1" t="s">
         <v>8</v>
@@ -9530,13 +9529,13 @@
     </row>
     <row r="247" ht="18" spans="1:6">
       <c r="A247" s="5" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C247" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D247" s="1" t="s">
         <v>8</v>
@@ -9549,14 +9548,14 @@
       </c>
     </row>
     <row r="248" ht="18" spans="1:6">
-      <c r="A248" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="B248" s="5" t="s">
-        <v>254</v>
+      <c r="A248" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B248" s="8" t="s">
+        <v>136</v>
       </c>
       <c r="C248" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D248" s="1" t="s">
         <v>8</v>
@@ -9570,39 +9569,39 @@
     </row>
     <row r="249" ht="18" spans="1:6">
       <c r="A249" s="5" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
       <c r="B249" s="5" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
       <c r="C249" s="6">
+        <v>3</v>
+      </c>
+      <c r="D249" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E249" s="1">
         <v>4</v>
-      </c>
-      <c r="D249" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E249" s="1">
-        <v>2</v>
       </c>
       <c r="F249" s="1">
         <v>300</v>
       </c>
     </row>
     <row r="250" ht="18" spans="1:6">
-      <c r="A250" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="B250" s="8" t="s">
-        <v>137</v>
+      <c r="A250" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="B250" s="5" t="s">
+        <v>257</v>
       </c>
       <c r="C250" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D250" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E250" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F250" s="1">
         <v>300</v>
@@ -9610,13 +9609,13 @@
     </row>
     <row r="251" ht="18" spans="1:6">
       <c r="A251" s="5" t="s">
-        <v>237</v>
+        <v>258</v>
       </c>
       <c r="B251" s="5" t="s">
-        <v>238</v>
+        <v>259</v>
       </c>
       <c r="C251" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D251" s="1" t="s">
         <v>8</v>
@@ -9630,10 +9629,10 @@
     </row>
     <row r="252" ht="18" spans="1:6">
       <c r="A252" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="B252" s="5" t="s">
-        <v>258</v>
+        <v>260</v>
+      </c>
+      <c r="B252" s="11" t="s">
+        <v>261</v>
       </c>
       <c r="C252" s="6">
         <v>3</v>
@@ -9650,13 +9649,13 @@
     </row>
     <row r="253" ht="18" spans="1:6">
       <c r="A253" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="B253" s="5" t="s">
-        <v>260</v>
+        <v>262</v>
+      </c>
+      <c r="B253" s="12" t="s">
+        <v>245</v>
       </c>
       <c r="C253" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D253" s="1" t="s">
         <v>8</v>
@@ -9670,10 +9669,10 @@
     </row>
     <row r="254" ht="18" spans="1:6">
       <c r="A254" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="B254" s="11" t="s">
-        <v>262</v>
+        <v>263</v>
+      </c>
+      <c r="B254" s="5" t="s">
+        <v>264</v>
       </c>
       <c r="C254" s="6">
         <v>3</v>
@@ -9690,13 +9689,13 @@
     </row>
     <row r="255" ht="18" spans="1:6">
       <c r="A255" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="B255" s="12" t="s">
-        <v>246</v>
+        <v>265</v>
+      </c>
+      <c r="B255" s="5" t="s">
+        <v>266</v>
       </c>
       <c r="C255" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D255" s="1" t="s">
         <v>8</v>
@@ -9710,10 +9709,10 @@
     </row>
     <row r="256" ht="18" spans="1:6">
       <c r="A256" s="5" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C256" s="6">
         <v>3</v>
@@ -9730,19 +9729,19 @@
     </row>
     <row r="257" ht="18" spans="1:6">
       <c r="A257" s="5" t="s">
-        <v>266</v>
+        <v>236</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>267</v>
+        <v>237</v>
       </c>
       <c r="C257" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D257" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E257" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F257" s="1">
         <v>300</v>
@@ -9750,19 +9749,19 @@
     </row>
     <row r="258" ht="18" spans="1:6">
       <c r="A258" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="B258" s="5" t="s">
         <v>269</v>
       </c>
+      <c r="B258" s="7" t="s">
+        <v>245</v>
+      </c>
       <c r="C258" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D258" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E258" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F258" s="1">
         <v>300</v>
@@ -9770,13 +9769,13 @@
     </row>
     <row r="259" ht="18" spans="1:6">
       <c r="A259" s="5" t="s">
-        <v>237</v>
+        <v>270</v>
       </c>
       <c r="B259" s="5" t="s">
-        <v>238</v>
+        <v>271</v>
       </c>
       <c r="C259" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D259" s="1" t="s">
         <v>8</v>
@@ -9790,13 +9789,13 @@
     </row>
     <row r="260" ht="18" spans="1:6">
       <c r="A260" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="B260" s="7" t="s">
-        <v>246</v>
+        <v>272</v>
+      </c>
+      <c r="B260" s="5" t="s">
+        <v>273</v>
       </c>
       <c r="C260" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D260" s="1" t="s">
         <v>8</v>
@@ -9810,10 +9809,10 @@
     </row>
     <row r="261" ht="18" spans="1:6">
       <c r="A261" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="B261" s="5" t="s">
-        <v>272</v>
+        <v>274</v>
+      </c>
+      <c r="B261" s="11" t="s">
+        <v>275</v>
       </c>
       <c r="C261" s="6">
         <v>2</v>
@@ -9830,13 +9829,13 @@
     </row>
     <row r="262" ht="18" spans="1:6">
       <c r="A262" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="B262" s="5" t="s">
-        <v>274</v>
+        <v>276</v>
+      </c>
+      <c r="B262" s="11" t="s">
+        <v>277</v>
       </c>
       <c r="C262" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D262" s="1" t="s">
         <v>8</v>
@@ -9850,13 +9849,13 @@
     </row>
     <row r="263" ht="18" spans="1:6">
       <c r="A263" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="B263" s="11" t="s">
-        <v>276</v>
+        <v>278</v>
+      </c>
+      <c r="B263" s="5" t="s">
+        <v>279</v>
       </c>
       <c r="C263" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D263" s="1" t="s">
         <v>8</v>
@@ -9870,13 +9869,13 @@
     </row>
     <row r="264" ht="18" spans="1:6">
       <c r="A264" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="B264" s="11" t="s">
-        <v>278</v>
+        <v>280</v>
+      </c>
+      <c r="B264" s="5" t="s">
+        <v>281</v>
       </c>
       <c r="C264" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D264" s="1" t="s">
         <v>8</v>
@@ -9890,13 +9889,13 @@
     </row>
     <row r="265" ht="18" spans="1:6">
       <c r="A265" s="5" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B265" s="5" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C265" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D265" s="1" t="s">
         <v>8</v>
@@ -9909,14 +9908,14 @@
       </c>
     </row>
     <row r="266" ht="18" spans="1:6">
-      <c r="A266" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="B266" s="5" t="s">
-        <v>282</v>
+      <c r="A266" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B266" s="8" t="s">
+        <v>136</v>
       </c>
       <c r="C266" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D266" s="1" t="s">
         <v>8</v>
@@ -9930,50 +9929,50 @@
     </row>
     <row r="267" ht="18" spans="1:6">
       <c r="A267" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B267" s="5" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C267" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D267" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E267" s="1">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="F267" s="1">
-        <v>300</v>
+        <v>400</v>
       </c>
     </row>
     <row r="268" ht="18" spans="1:6">
-      <c r="A268" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="B268" s="8" t="s">
-        <v>137</v>
+      <c r="A268" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="B268" s="5" t="s">
+        <v>287</v>
       </c>
       <c r="C268" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D268" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E268" s="1">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="F268" s="1">
-        <v>300</v>
+        <v>400</v>
       </c>
     </row>
     <row r="269" ht="18" spans="1:6">
       <c r="A269" s="5" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B269" s="5" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C269" s="6">
         <v>3</v>
@@ -9990,13 +9989,13 @@
     </row>
     <row r="270" ht="18" spans="1:6">
       <c r="A270" s="5" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B270" s="5" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C270" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D270" s="1" t="s">
         <v>8</v>
@@ -10010,10 +10009,10 @@
     </row>
     <row r="271" ht="18" spans="1:6">
       <c r="A271" s="5" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B271" s="5" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C271" s="6">
         <v>3</v>
@@ -10030,13 +10029,13 @@
     </row>
     <row r="272" ht="18" spans="1:6">
       <c r="A272" s="5" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B272" s="5" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C272" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D272" s="1" t="s">
         <v>8</v>
@@ -10045,46 +10044,6 @@
         <v>17</v>
       </c>
       <c r="F272" s="1">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="273" ht="18" spans="1:6">
-      <c r="A273" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="B273" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="C273" s="6">
-        <v>3</v>
-      </c>
-      <c r="D273" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E273" s="1">
-        <v>17</v>
-      </c>
-      <c r="F273" s="1">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="274" ht="18" spans="1:6">
-      <c r="A274" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="B274" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="C274" s="6">
-        <v>3</v>
-      </c>
-      <c r="D274" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E274" s="1">
-        <v>17</v>
-      </c>
-      <c r="F274" s="1">
         <v>400</v>
       </c>
     </row>

--- a/excel DB format/Courses.xlsx
+++ b/excel DB format/Courses.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="296">
   <si>
     <t>code</t>
   </si>
@@ -4588,12 +4588,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F272"/>
+  <dimension ref="A1:F284"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B100" sqref="B100"/>
+      <selection pane="bottomLeft" activeCell="A209" sqref="A209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="5"/>
@@ -8829,10 +8829,10 @@
     </row>
     <row r="212" ht="18" spans="1:6">
       <c r="A212" s="5" t="s">
-        <v>195</v>
+        <v>68</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>196</v>
+        <v>69</v>
       </c>
       <c r="C212" s="6">
         <v>2</v>
@@ -8844,15 +8844,15 @@
         <v>7</v>
       </c>
       <c r="F212" s="1">
-        <v>300</v>
+        <v>200</v>
       </c>
     </row>
     <row r="213" ht="18" spans="1:6">
       <c r="A213" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C213" s="6">
         <v>2</v>
@@ -8869,13 +8869,13 @@
     </row>
     <row r="214" ht="18" spans="1:6">
       <c r="A214" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C214" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D214" s="1" t="s">
         <v>8</v>
@@ -8889,10 +8889,10 @@
     </row>
     <row r="215" ht="18" spans="1:6">
       <c r="A215" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C215" s="6">
         <v>3</v>
@@ -8909,10 +8909,10 @@
     </row>
     <row r="216" ht="18" spans="1:6">
       <c r="A216" s="5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C216" s="6">
         <v>3</v>
@@ -8929,10 +8929,10 @@
     </row>
     <row r="217" ht="18" spans="1:6">
       <c r="A217" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C217" s="6">
         <v>3</v>
@@ -8949,10 +8949,10 @@
     </row>
     <row r="218" ht="18" spans="1:6">
       <c r="A218" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C218" s="6">
         <v>3</v>
@@ -8968,14 +8968,14 @@
       </c>
     </row>
     <row r="219" ht="18" spans="1:6">
-      <c r="A219" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="B219" s="8" t="s">
-        <v>136</v>
+      <c r="A219" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B219" s="5" t="s">
+        <v>208</v>
       </c>
       <c r="C219" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D219" s="1" t="s">
         <v>8</v>
@@ -8988,11 +8988,11 @@
       </c>
     </row>
     <row r="220" ht="18" spans="1:6">
-      <c r="A220" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="B220" s="5" t="s">
-        <v>67</v>
+      <c r="A220" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B220" s="8" t="s">
+        <v>136</v>
       </c>
       <c r="C220" s="6">
         <v>2</v>
@@ -9001,18 +9001,18 @@
         <v>8</v>
       </c>
       <c r="E220" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F220" s="1">
-        <v>200</v>
+        <v>300</v>
       </c>
     </row>
     <row r="221" ht="18" spans="1:6">
       <c r="A221" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>209</v>
+        <v>67</v>
       </c>
       <c r="C221" s="6">
         <v>2</v>
@@ -9029,10 +9029,10 @@
     </row>
     <row r="222" ht="18" spans="1:6">
       <c r="A222" s="5" t="s">
-        <v>210</v>
+        <v>146</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C222" s="6">
         <v>2</v>
@@ -9049,10 +9049,10 @@
     </row>
     <row r="223" ht="18" spans="1:6">
       <c r="A223" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C223" s="6">
         <v>2</v>
@@ -9069,10 +9069,10 @@
     </row>
     <row r="224" ht="18" spans="1:6">
       <c r="A224" s="5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C224" s="6">
         <v>2</v>
@@ -9089,10 +9089,10 @@
     </row>
     <row r="225" ht="18" spans="1:6">
       <c r="A225" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C225" s="6">
         <v>2</v>
@@ -9109,10 +9109,10 @@
     </row>
     <row r="226" ht="18" spans="1:6">
       <c r="A226" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C226" s="6">
         <v>2</v>
@@ -9129,10 +9129,10 @@
     </row>
     <row r="227" ht="18" spans="1:6">
       <c r="A227" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C227" s="6">
         <v>2</v>
@@ -9149,10 +9149,10 @@
     </row>
     <row r="228" ht="18" spans="1:6">
       <c r="A228" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C228" s="6">
         <v>2</v>
@@ -9169,10 +9169,10 @@
     </row>
     <row r="229" ht="18" spans="1:6">
       <c r="A229" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C229" s="6">
         <v>2</v>
@@ -9181,7 +9181,7 @@
         <v>8</v>
       </c>
       <c r="E229" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F229" s="1">
         <v>200</v>
@@ -9189,10 +9189,10 @@
     </row>
     <row r="230" ht="18" spans="1:6">
       <c r="A230" s="5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C230" s="6">
         <v>2</v>
@@ -9209,10 +9209,10 @@
     </row>
     <row r="231" ht="18" spans="1:6">
       <c r="A231" s="5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C231" s="6">
         <v>2</v>
@@ -9229,10 +9229,10 @@
     </row>
     <row r="232" ht="18" spans="1:6">
       <c r="A232" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B232" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C232" s="6">
         <v>2</v>
@@ -9249,10 +9249,10 @@
     </row>
     <row r="233" ht="18" spans="1:6">
       <c r="A233" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C233" s="6">
         <v>2</v>
@@ -9269,10 +9269,10 @@
     </row>
     <row r="234" ht="18" spans="1:6">
       <c r="A234" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C234" s="6">
         <v>2</v>
@@ -9289,10 +9289,10 @@
     </row>
     <row r="235" ht="18" spans="1:6">
       <c r="A235" s="5" t="s">
-        <v>62</v>
+        <v>234</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>177</v>
+        <v>235</v>
       </c>
       <c r="C235" s="6">
         <v>2</v>
@@ -9309,10 +9309,10 @@
     </row>
     <row r="236" ht="18" spans="1:6">
       <c r="A236" s="5" t="s">
-        <v>145</v>
+        <v>62</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>67</v>
+        <v>177</v>
       </c>
       <c r="C236" s="6">
         <v>2</v>
@@ -9329,10 +9329,10 @@
     </row>
     <row r="237" ht="18" spans="1:6">
       <c r="A237" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C237" s="6">
         <v>2</v>
@@ -9349,33 +9349,33 @@
     </row>
     <row r="238" ht="18" spans="1:6">
       <c r="A238" s="5" t="s">
-        <v>236</v>
+        <v>146</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>237</v>
+        <v>69</v>
       </c>
       <c r="C238" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D238" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E238" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F238" s="1">
-        <v>300</v>
+        <v>200</v>
       </c>
     </row>
     <row r="239" ht="18" spans="1:6">
       <c r="A239" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C239" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D239" s="1" t="s">
         <v>8</v>
@@ -9389,10 +9389,10 @@
     </row>
     <row r="240" ht="18" spans="1:6">
       <c r="A240" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C240" s="6">
         <v>2</v>
@@ -9409,10 +9409,10 @@
     </row>
     <row r="241" ht="18" spans="1:6">
       <c r="A241" s="5" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C241" s="6">
         <v>2</v>
@@ -9429,13 +9429,13 @@
     </row>
     <row r="242" ht="18" spans="1:6">
       <c r="A242" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="B242" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
+      </c>
+      <c r="B242" s="5" t="s">
+        <v>243</v>
       </c>
       <c r="C242" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D242" s="1" t="s">
         <v>8</v>
@@ -9449,13 +9449,13 @@
     </row>
     <row r="243" ht="18" spans="1:6">
       <c r="A243" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="B243" s="5" t="s">
-        <v>247</v>
+        <v>244</v>
+      </c>
+      <c r="B243" s="7" t="s">
+        <v>245</v>
       </c>
       <c r="C243" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D243" s="1" t="s">
         <v>8</v>
@@ -9469,10 +9469,10 @@
     </row>
     <row r="244" ht="18" spans="1:6">
       <c r="A244" s="5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C244" s="6">
         <v>2</v>
@@ -9489,10 +9489,10 @@
     </row>
     <row r="245" ht="18" spans="1:6">
       <c r="A245" s="5" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B245" s="5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C245" s="6">
         <v>2</v>
@@ -9509,13 +9509,13 @@
     </row>
     <row r="246" ht="18" spans="1:6">
       <c r="A246" s="5" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B246" s="5" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C246" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D246" s="1" t="s">
         <v>8</v>
@@ -9529,13 +9529,13 @@
     </row>
     <row r="247" ht="18" spans="1:6">
       <c r="A247" s="5" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C247" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D247" s="1" t="s">
         <v>8</v>
@@ -9548,14 +9548,14 @@
       </c>
     </row>
     <row r="248" ht="18" spans="1:6">
-      <c r="A248" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="B248" s="8" t="s">
-        <v>136</v>
+      <c r="A248" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="B248" s="5" t="s">
+        <v>255</v>
       </c>
       <c r="C248" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D248" s="1" t="s">
         <v>8</v>
@@ -9568,20 +9568,20 @@
       </c>
     </row>
     <row r="249" ht="18" spans="1:6">
-      <c r="A249" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="B249" s="5" t="s">
-        <v>237</v>
+      <c r="A249" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B249" s="8" t="s">
+        <v>136</v>
       </c>
       <c r="C249" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D249" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E249" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F249" s="1">
         <v>300</v>
@@ -9589,10 +9589,10 @@
     </row>
     <row r="250" ht="18" spans="1:6">
       <c r="A250" s="5" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="B250" s="5" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="C250" s="6">
         <v>3</v>
@@ -9609,13 +9609,13 @@
     </row>
     <row r="251" ht="18" spans="1:6">
       <c r="A251" s="5" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B251" s="5" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C251" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D251" s="1" t="s">
         <v>8</v>
@@ -9629,13 +9629,13 @@
     </row>
     <row r="252" ht="18" spans="1:6">
       <c r="A252" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="B252" s="11" t="s">
-        <v>261</v>
+        <v>258</v>
+      </c>
+      <c r="B252" s="5" t="s">
+        <v>259</v>
       </c>
       <c r="C252" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D252" s="1" t="s">
         <v>8</v>
@@ -9649,10 +9649,10 @@
     </row>
     <row r="253" ht="18" spans="1:6">
       <c r="A253" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="B253" s="12" t="s">
-        <v>245</v>
+        <v>260</v>
+      </c>
+      <c r="B253" s="11" t="s">
+        <v>261</v>
       </c>
       <c r="C253" s="6">
         <v>3</v>
@@ -9669,10 +9669,10 @@
     </row>
     <row r="254" ht="18" spans="1:6">
       <c r="A254" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="B254" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
+      </c>
+      <c r="B254" s="12" t="s">
+        <v>245</v>
       </c>
       <c r="C254" s="6">
         <v>3</v>
@@ -9689,13 +9689,13 @@
     </row>
     <row r="255" ht="18" spans="1:6">
       <c r="A255" s="5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C255" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D255" s="1" t="s">
         <v>8</v>
@@ -9709,13 +9709,13 @@
     </row>
     <row r="256" ht="18" spans="1:6">
       <c r="A256" s="5" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C256" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D256" s="1" t="s">
         <v>8</v>
@@ -9729,10 +9729,10 @@
     </row>
     <row r="257" ht="18" spans="1:6">
       <c r="A257" s="5" t="s">
-        <v>236</v>
+        <v>267</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>237</v>
+        <v>268</v>
       </c>
       <c r="C257" s="6">
         <v>3</v>
@@ -9741,7 +9741,7 @@
         <v>8</v>
       </c>
       <c r="E257" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F257" s="1">
         <v>300</v>
@@ -9749,13 +9749,13 @@
     </row>
     <row r="258" ht="18" spans="1:6">
       <c r="A258" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="B258" s="7" t="s">
-        <v>245</v>
+        <v>236</v>
+      </c>
+      <c r="B258" s="5" t="s">
+        <v>237</v>
       </c>
       <c r="C258" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D258" s="1" t="s">
         <v>8</v>
@@ -9769,10 +9769,10 @@
     </row>
     <row r="259" ht="18" spans="1:6">
       <c r="A259" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="B259" s="5" t="s">
-        <v>271</v>
+        <v>269</v>
+      </c>
+      <c r="B259" s="7" t="s">
+        <v>245</v>
       </c>
       <c r="C259" s="6">
         <v>2</v>
@@ -9789,13 +9789,13 @@
     </row>
     <row r="260" ht="18" spans="1:6">
       <c r="A260" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B260" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C260" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D260" s="1" t="s">
         <v>8</v>
@@ -9809,13 +9809,13 @@
     </row>
     <row r="261" ht="18" spans="1:6">
       <c r="A261" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="B261" s="11" t="s">
-        <v>275</v>
+        <v>272</v>
+      </c>
+      <c r="B261" s="5" t="s">
+        <v>273</v>
       </c>
       <c r="C261" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D261" s="1" t="s">
         <v>8</v>
@@ -9829,10 +9829,10 @@
     </row>
     <row r="262" ht="18" spans="1:6">
       <c r="A262" s="5" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B262" s="11" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C262" s="6">
         <v>2</v>
@@ -9849,13 +9849,13 @@
     </row>
     <row r="263" ht="18" spans="1:6">
       <c r="A263" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="B263" s="5" t="s">
-        <v>279</v>
+        <v>276</v>
+      </c>
+      <c r="B263" s="11" t="s">
+        <v>277</v>
       </c>
       <c r="C263" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D263" s="1" t="s">
         <v>8</v>
@@ -9869,13 +9869,13 @@
     </row>
     <row r="264" ht="18" spans="1:6">
       <c r="A264" s="5" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B264" s="5" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C264" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D264" s="1" t="s">
         <v>8</v>
@@ -9889,13 +9889,13 @@
     </row>
     <row r="265" ht="18" spans="1:6">
       <c r="A265" s="5" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B265" s="5" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C265" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D265" s="1" t="s">
         <v>8</v>
@@ -9908,11 +9908,11 @@
       </c>
     </row>
     <row r="266" ht="18" spans="1:6">
-      <c r="A266" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="B266" s="8" t="s">
-        <v>136</v>
+      <c r="A266" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="B266" s="5" t="s">
+        <v>283</v>
       </c>
       <c r="C266" s="6">
         <v>2</v>
@@ -9928,31 +9928,31 @@
       </c>
     </row>
     <row r="267" ht="18" spans="1:6">
-      <c r="A267" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="B267" s="5" t="s">
-        <v>285</v>
+      <c r="A267" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B267" s="8" t="s">
+        <v>136</v>
       </c>
       <c r="C267" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D267" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E267" s="1">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="F267" s="1">
-        <v>400</v>
+        <v>300</v>
       </c>
     </row>
     <row r="268" ht="18" spans="1:6">
       <c r="A268" s="5" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B268" s="5" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C268" s="6">
         <v>3</v>
@@ -9969,10 +9969,10 @@
     </row>
     <row r="269" ht="18" spans="1:6">
       <c r="A269" s="5" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B269" s="5" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C269" s="6">
         <v>3</v>
@@ -9989,13 +9989,13 @@
     </row>
     <row r="270" ht="18" spans="1:6">
       <c r="A270" s="5" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B270" s="5" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C270" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D270" s="1" t="s">
         <v>8</v>
@@ -10009,13 +10009,13 @@
     </row>
     <row r="271" ht="18" spans="1:6">
       <c r="A271" s="5" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B271" s="5" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C271" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D271" s="1" t="s">
         <v>8</v>
@@ -10029,10 +10029,10 @@
     </row>
     <row r="272" ht="18" spans="1:6">
       <c r="A272" s="5" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B272" s="5" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C272" s="6">
         <v>3</v>
@@ -10045,6 +10045,246 @@
       </c>
       <c r="F272" s="1">
         <v>400</v>
+      </c>
+    </row>
+    <row r="273" ht="18" spans="1:6">
+      <c r="A273" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="B273" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="C273" s="6">
+        <v>3</v>
+      </c>
+      <c r="D273" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E273" s="1">
+        <v>17</v>
+      </c>
+      <c r="F273" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="274" ht="18" spans="1:6">
+      <c r="A274" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B274" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C274" s="6">
+        <v>3</v>
+      </c>
+      <c r="D274" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E274" s="1">
+        <v>16</v>
+      </c>
+      <c r="F274" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="275" ht="18" spans="1:6">
+      <c r="A275" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B275" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C275" s="6">
+        <v>1</v>
+      </c>
+      <c r="D275" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E275" s="1">
+        <v>16</v>
+      </c>
+      <c r="F275" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="276" ht="18" spans="1:6">
+      <c r="A276" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B276" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C276" s="6">
+        <v>3</v>
+      </c>
+      <c r="D276" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E276" s="1">
+        <v>16</v>
+      </c>
+      <c r="F276" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="277" ht="18" spans="1:6">
+      <c r="A277" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B277" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C277" s="6">
+        <v>3</v>
+      </c>
+      <c r="D277" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E277" s="1">
+        <v>16</v>
+      </c>
+      <c r="F277" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="278" ht="18" spans="1:6">
+      <c r="A278" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B278" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C278" s="6">
+        <v>3</v>
+      </c>
+      <c r="D278" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E278" s="1">
+        <v>16</v>
+      </c>
+      <c r="F278" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="279" ht="18" spans="1:6">
+      <c r="A279" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B279" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C279" s="6">
+        <v>1</v>
+      </c>
+      <c r="D279" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E279" s="1">
+        <v>16</v>
+      </c>
+      <c r="F279" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="280" ht="18" spans="1:6">
+      <c r="A280" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B280" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C280" s="6">
+        <v>2</v>
+      </c>
+      <c r="D280" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E280" s="1">
+        <v>16</v>
+      </c>
+      <c r="F280" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="281" ht="18" spans="1:6">
+      <c r="A281" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B281" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C281" s="6">
+        <v>2</v>
+      </c>
+      <c r="D281" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E281" s="1">
+        <v>16</v>
+      </c>
+      <c r="F281" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="282" ht="18" spans="1:6">
+      <c r="A282" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B282" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C282" s="6">
+        <v>2</v>
+      </c>
+      <c r="D282" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E282" s="1">
+        <v>16</v>
+      </c>
+      <c r="F282" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="283" ht="18" spans="1:6">
+      <c r="A283" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B283" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C283" s="6">
+        <v>2</v>
+      </c>
+      <c r="D283" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E283" s="1">
+        <v>16</v>
+      </c>
+      <c r="F283" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="284" ht="18" spans="1:6">
+      <c r="A284" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B284" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C284" s="6">
+        <v>2</v>
+      </c>
+      <c r="D284" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E284" s="1">
+        <v>16</v>
+      </c>
+      <c r="F284" s="1">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
